--- a/biology/Neurosciences/Roland_Denise_Oberson/Roland_Denise_Oberson.xlsx
+++ b/biology/Neurosciences/Roland_Denise_Oberson/Roland_Denise_Oberson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Denise Oberson est le nom de plume de Roland Oberson, né le 19 août 1931 à Villaranon (canton de Fribourg), écrivain et médecin neuroradiologue suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland, Jean, Louis Oberson naît dans une ferme isolée du district de la Glâne. À treize ans, il est envoyé au collège Saint-Charles Borromée à Romont, puis au collège Saint-Michel à Fribourg. Malgré son intérêt pour le grec et le latin, il trouve le curriculum des études littéraires peu efficient. Il bifurque et obtient le baccalauréat commercial en 1950. Sa mère le presse de reprendre les études littéraires ; elle fait elle-même toute seule la tournée des collèges de Suisse allemande. Tous refusent, sauf la Stiftschule de Sarnen en Obwald où il termine ses études secondaires en latin - anglais en 1952. Il effectue son école de recrues à Bâle, qu'il déclarera admirer « pour son charme romantique ». Durant son service militaire, on le qualifie de « bon médecin, mauvais soldat ».
 </t>
@@ -542,18 +556,54 @@
           <t>Le médecin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Études de médecine en alternance à Lausanne et à Paris. 1959, médecin assistant à l'Hôpital de l'Enfance où il commence sa thèse avec pour sujet la Hernie ovarienne de l'enfant avant deux ans sous la direction de son maître bien-aimé, le professeur Maurice Vulliet. Tous deux sont admirateurs de Stéphane Mallarmé, ce qui resserre leur amitié. 1960, en radiologie générale à l'Hôpital cantonal de Lausanne devenu par la suite le CHUV ou Centre Hospitalier Universitaire Vaudois. Choisi par son nouveau maître pour développer la neuroradiologie, il est à Paris en 1962 à la Pitié-Salpêtrière auprès de Mme le Professeur Thérèse Planiol, à la fois physicienne et médecin des Hôpitaux, laquelle dirige le Laboratoire de gamma-encéphalographie et dans le service du Pr David, neurochirurgie. Il est nommé médecin étranger des Hôpitaux de Paris. À Lausanne comme à Paris, il s'inscrit simultanément aux Facultés de Lettres et de Médecine.
 Dès 1964, poursuivant sa formation de neuroradiologiste, il est assistant auprès d'un autre maître vénéré, le Pr Auguste Wackenheim, à Strasbourg; puis à Stockholm, à l'Universitetssjukhuset Karolinska, chez le Pr Torgny Greitz. Enfin, il trouve son maître en angiographie du système nerveux central en la personne du docteur Peer Amundsen, à Oslo, à l'Ullevàl Hospital. En 1965, il est spécialiste FMH en radiologie et médecine nucléaire. Membre fondateur de l'European Society of Neuroradiology à Colmar en mars 1972. De 1972 à 1996, il enseigne la neuroradiologie à la Faculté de Médecine de l’Université de Lausanne. Son activité médicale se résume ainsi :
 1964 Lauréat de la bourse Félix Bonjour (distinction : étudiant particulièrement méritant de l'UNIL)
 1965 – 1975 Médecin – adjoint responsable de la division de neuroradiologie, Hôpital cantonal, Lausanne.
-1974 Privat-Docent en neuroradiologie Université de Lausanne (UNIL)[1]
+1974 Privat-Docent en neuroradiologie Université de Lausanne (UNIL)
 1975 – 1984 Médecin chef du service de radiologie, Hirslanden Clinique Cecil, Lausanne.
-1978 – 1991 d'où il est appelé à Sion (Valais) pour développer et diriger le service de radiologie diagnostique et médecine nucléaire dans le nouvel hôpital central qui ouvre ses portes[2].
-1984 – 1996 Fondateur et Médecin chef du Centre d’Imagerie Diagnostique CID, Grand-Chêne 8 bis, Lausanne.
-Publications médicales
-Aperçu de quelques articles sur plus de 200, tirés de revues scientifiques et médicales publiés au cours des années 1964 à 1980. Oberson roland : La hernie annexielle ou ovarienne chez l’enfant. Revue méd. Suisse Romande. 1964 Nov;84:793-810. PMID 14230434 indexed for MEDLINE.
+1978 – 1991 d'où il est appelé à Sion (Valais) pour développer et diriger le service de radiologie diagnostique et médecine nucléaire dans le nouvel hôpital central qui ouvre ses portes.
+1984 – 1996 Fondateur et Médecin chef du Centre d’Imagerie Diagnostique CID, Grand-Chêne 8 bis, Lausanne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roland_Denise_Oberson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Denise_Oberson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le médecin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aperçu de quelques articles sur plus de 200, tirés de revues scientifiques et médicales publiés au cours des années 1964 à 1980. Oberson roland : La hernie annexielle ou ovarienne chez l’enfant. Revue méd. Suisse Romande. 1964 Nov;84:793-810. PMID 14230434 indexed for MEDLINE.
 Planiol Thérèse et Oberson Roland : Gamma-encéphalography in subtentorial pathology. Study of 160 cases. Mémoire. Presse Médicale 1966 Feb 12;74(8):361-6.PMID 5901893.
 Gros CM, Wackenheim A, Vrousos C, Oberson R.: Isotopic exploration of subdural hematoma in young infants. J. Belge Radiol. 1967;50(3):238-9. PMID 5614399.
 Oberson R.:Neuroradioisotopic technics in diagnosis. Schweiz. Med. Wochenschr. 1968 April 6;98(14):524-32 PMID 5688586.
@@ -569,48 +619,123 @@
 Oberson R : Diagnosis of cerebrospinal fluid leakages by gamma-cisternography. Neurochirurgie. 1976;22(4):397-409. PMID 796746.
 Oberson R. Myeloscintigraphy. À modern Queckenstedt test. Acta Radiol Suppl. 1976;347:443-50. PMID 207133.
 Oberson R.: Nuclear medicine diagnostic in hydrocephalus.  Radiologe. 1977 Nov;17(11):448-54. German. PMID 594358.
-Oberson R. : Nous émiscannons... ils émiscannent. Editorial in Médecine et Hygiène (Genève) 35, 1977 ; p. 2467-2468. À propos du premier CT-scanner corps entier de Suisse[3].
+Oberson R. : Nous émiscannons... ils émiscannent. Editorial in Médecine et Hygiène (Genève) 35, 1977 ; p. 2467-2468. À propos du premier CT-scanner corps entier de Suisse.
 Oberson R.: Neuroradiological anatomy and physiopathology of the cerebrospinal fluid circulation. The role of the tentorial hiatus. J Neuroradiol. 1978 Mar; 5(1):17-26. PMID 306423.
 Oberson R, Azam F.: CAT of the spine and spinal cord.  Neuroradiology. 1978; 16:369-70. PMID 745718.
 Oberson R.: Computer assisted tomography-cat. Schweiz Rundsch Med Prax. 1979 Aug 21;68(34):1075-83. French. PMID 471937.
 Bradač GB, Oberson R.: CT and angiography in cases with occlusive disease of supratentorial cerebral vessels. Neuroradiology. 1980; 19(4):193-200.
-Monographies médicales
-En collaboration avec son ami Gianni Boris Bradač (Berlin et Torino) : Angiography in Cerebro-Arterial Occlusive Diseases. Including Computer Tomography and Radionuclid Methods. 144 Figures in 341 Separate Illustrations. Springer-Verlag, Berlin, Heidelberg, New York, 1979. Avec une préface du professeur Auguste Wackenheim.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roland_Denise_Oberson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Denise_Oberson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le médecin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monographies médicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En collaboration avec son ami Gianni Boris Bradač (Berlin et Torino) : Angiography in Cerebro-Arterial Occlusive Diseases. Including Computer Tomography and Radionuclid Methods. 144 Figures in 341 Separate Illustrations. Springer-Verlag, Berlin, Heidelberg, New York, 1979. Avec une préface du professeur Auguste Wackenheim.
 Angiography and Computed Tomography in Cerebro-Arterial Occlusive Diseases. Second, Revised and Expanded Edition. 144 Figures in 389 Separate Illustrations) en 1983 avec une préface du professeur Juan Taveras, Boston :
 En collaboration avec Solé-Llenas et A Wachenheim : Diagnostico Neuroradiologico. 16 art. Toray, Barcelona 1967. 2e édition</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Roland_Denise_Oberson</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Roland_Denise_Oberson</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>L'essayiste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Roland Oberson cesse son activité de neuroradiologue en 1996, à l'âge de 65 ans. Retraité, il se consacre dès lors entièrement à une activité littéraire. Ses recherches portent principalement sur la correspondance d'Héloïse et d'Abélard dont il reprend trois fois la traduction[4]. Il prend le nom de plume de Roland Denise Oberson en hommage à son épouse décédée[Quand ?].
-Ouvrages littéraires
-Sous Roland Oberson
-Éditions l’Âge d’Homme, Lausanne
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Oberson cesse son activité de neuroradiologue en 1996, à l'âge de 65 ans. Retraité, il se consacre dès lors entièrement à une activité littéraire. Ses recherches portent principalement sur la correspondance d'Héloïse et d'Abélard dont il reprend trois fois la traduction. Il prend le nom de plume de Roland Denise Oberson en hommage à son épouse décédée[Quand ?].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roland_Denise_Oberson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Denise_Oberson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L'essayiste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages littéraires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sous Roland Oberson</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Éditions l’Âge d’Homme, Lausanne
 Abélard, mon frère. Essai d’interprétation. 2001
 Pierre Bayle : Personnages de l’affaire Abélard et considérations sur les obscénités. Introduction, notes et commentaires. 2002
 Héloïse – Abélard. Correspondance. Nouvelle version des Lettres I – VI.  2002
@@ -620,9 +745,47 @@
 La Héloïse forcée. 2004
 Héloïse vierge et mère. Un cas de pédophilie incestueuse au XIIe siècle. 2007
 Editions IRM, Lucca
-Envols. Brèves historiettes pour le voyage. 2007
-Sous Roland Denise Oberson
-Éditions Hermann, Paris
+Envols. Brèves historiettes pour le voyage. 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roland_Denise_Oberson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_Denise_Oberson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L'essayiste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages littéraires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sous Roland Denise Oberson</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Éditions Hermann, Paris
 Héloïse – Abélard Correspondance. Lettres I–VI. Édition bilingue numérotée. Traduction française et Texte latin (Duchesne–d’Amboise 1615) en regard.  2007.
 Héloïse revisitée, 2008.
 Abélard et Héloïse, À singulière esclave, maître spécial, 2010.
@@ -643,31 +806,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Roland_Denise_Oberson</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Roland_Denise_Oberson</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>« Roland Denise Oberson », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Sites et références mentionnés, notamment PUBMED A service of the U.S. National Library of Medicine and the National Institutes of Health
